--- a/eval/experiment_result.xlsx
+++ b/eval/experiment_result.xlsx
@@ -1,25 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quartz\Documents\python\complex_word_embedding\eval\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9405"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+  <si>
+    <t>Unnamed: 0</t>
+  </si>
   <si>
     <t>CR</t>
   </si>
@@ -33,9 +32,15 @@
     <t>SST_2</t>
   </si>
   <si>
+    <t>SST_5</t>
+  </si>
+  <si>
     <t>SUBJ</t>
   </si>
   <si>
+    <t>TREC</t>
+  </si>
+  <si>
     <t>mixture</t>
   </si>
   <si>
@@ -43,73 +48,34 @@
   </si>
   <si>
     <t>real</t>
-  </si>
-  <si>
-    <t>fastText BOW</t>
-  </si>
-  <si>
-    <t>Unigram-TFIDF</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Unsupervised representation Training</t>
-  </si>
-  <si>
-    <t>Supervised representation Training</t>
-  </si>
-  <si>
-    <t>CaptionRep(bow)</t>
-  </si>
-  <si>
-    <t>DictRep(bow)</t>
-  </si>
-  <si>
-    <t>Complex Embedding Network</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -118,111 +84,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="2">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -510,200 +391,133 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="37.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="1"/>
+    <row r="1" spans="1:9">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="n">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D2" t="n">
+        <v>84</v>
+      </c>
+      <c r="E2" t="n">
+        <v>77</v>
+      </c>
+      <c r="F2" t="n">
+        <v>81.7</v>
+      </c>
+      <c r="G2" t="n">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="H2" t="n">
+        <v>89.5</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="D3" t="n">
+        <v>77.3</v>
+      </c>
+      <c r="E3" t="n">
+        <v>76.59999999999999</v>
+      </c>
+      <c r="F3" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="G3" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="H3" t="n">
+        <v>88</v>
+      </c>
+      <c r="I3" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="6">
-        <v>0.80026454994918195</v>
-      </c>
-      <c r="D2">
-        <v>0.86569274269557017</v>
-      </c>
-      <c r="E2" s="6">
-        <v>0.78678537945716098</v>
-      </c>
-      <c r="F2" s="6">
-        <v>0.82646897328809876</v>
-      </c>
-      <c r="G2">
-        <v>0.91949999999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <v>0.78968253936717114</v>
-      </c>
-      <c r="D3">
-        <v>0.85296889726672953</v>
-      </c>
-      <c r="E3">
-        <v>0.77413308363488154</v>
-      </c>
-      <c r="F3">
-        <v>0.81054365752752766</v>
-      </c>
-      <c r="G3" s="6">
-        <v>0.92549999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
       <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>0.77513227481690661</v>
-      </c>
-      <c r="D4">
-        <v>0.84731385485391142</v>
-      </c>
-      <c r="E4">
-        <v>0.76991565158239794</v>
-      </c>
-      <c r="F4">
-        <v>0.79983525525600552</v>
-      </c>
-      <c r="G4">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <v>0.78900000000000003</v>
-      </c>
-      <c r="D6" s="6">
-        <v>0.874</v>
-      </c>
-      <c r="E6">
-        <v>0.76500000000000001</v>
-      </c>
-      <c r="F6">
-        <v>0.78800000000000003</v>
-      </c>
-      <c r="G6">
-        <v>0.91600000000000004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7">
-        <v>0.79200000000000004</v>
-      </c>
-      <c r="D7">
-        <v>0.82399999999999995</v>
-      </c>
-      <c r="E7">
-        <v>0.73699999999999999</v>
-      </c>
-      <c r="F7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G7">
-        <v>0.90300000000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9">
-        <v>0.69299999999999995</v>
-      </c>
-      <c r="D9">
-        <v>0.70799999999999996</v>
-      </c>
-      <c r="E9">
-        <v>0.61899999999999999</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9">
-        <v>0.77400000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10">
-        <v>0.78700000000000003</v>
-      </c>
-      <c r="D10">
-        <v>0.872</v>
-      </c>
-      <c r="E10">
-        <v>0.76700000000000002</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10">
-        <v>0.90700000000000003</v>
+      <c r="C4" t="n">
+        <v>64.59999999999999</v>
+      </c>
+      <c r="D4" t="n">
+        <v>71.2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>72.40000000000001</v>
+      </c>
+      <c r="F4" t="n">
+        <v>79.7</v>
+      </c>
+      <c r="G4" t="n">
+        <v>49.1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="I4" t="n">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A2:A4"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>